--- a/Documentation/TestCase.xlsx
+++ b/Documentation/TestCase.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Env." sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Forgot Password" sheetId="3" r:id="rId3"/>
+    <sheet name="Leave" sheetId="4" r:id="rId4"/>
+    <sheet name="Recruitment" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +22,767 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="251">
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Testing type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority ID</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Smoke testing</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Reference Document:</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Positive testing</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Created By:</t>
+  </si>
+  <si>
+    <t>Yaman Maharjan</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Negative testing</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Date of Creation:</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Relational testing</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Browser Info:</t>
+  </si>
+  <si>
+    <t>IE Edge, Chrome, Firefox</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Performance testing</t>
+  </si>
+  <si>
+    <t>Device Info:</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>User Interface testing</t>
+  </si>
+  <si>
+    <t>OS Info:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows </t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Regression testing</t>
+  </si>
+  <si>
+    <t>Test URL:</t>
+  </si>
+  <si>
+    <t>Updated By:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbreviation </t>
+  </si>
+  <si>
+    <t>Orange HRM</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Pre-Conditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC_LG_01</t>
+  </si>
+  <si>
+    <t>Verify login with valid credentials</t>
+  </si>
+  <si>
+    <t>User is on login page</t>
+  </si>
+  <si>
+    <t>1. Enter valid username and password</t>
+  </si>
+  <si>
+    <t>2. Click on "Login" button</t>
+  </si>
+  <si>
+    <t>User should be successfully logged in and redirected to the dashboard</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>TC_LG_02</t>
+  </si>
+  <si>
+    <t>Verify login with invalid password</t>
+  </si>
+  <si>
+    <t>1. Enter valid username and incorrect password</t>
+  </si>
+  <si>
+    <t>Error message "Invalid credentials" should be displayed, and user should not be logged in</t>
+  </si>
+  <si>
+    <t>TC_LG_03</t>
+  </si>
+  <si>
+    <t>Verify login with empty credentials</t>
+  </si>
+  <si>
+    <t>1. Leave both the username and password fields blank</t>
+  </si>
+  <si>
+    <t>Error message "Username cannot be empty" should be displayed for username, and no login should occur</t>
+  </si>
+  <si>
+    <t>TC_LG_04</t>
+  </si>
+  <si>
+    <t>Verify login with empty password</t>
+  </si>
+  <si>
+    <t>1. Enter valid username</t>
+  </si>
+  <si>
+    <t>2. Leave password field blank</t>
+  </si>
+  <si>
+    <t>3. Click on "Login" button</t>
+  </si>
+  <si>
+    <t>Error message "Password cannot be empty" should be displayed, and no login should occur</t>
+  </si>
+  <si>
+    <t>TC_LG_05</t>
+  </si>
+  <si>
+    <t>Verify login with invalid username</t>
+  </si>
+  <si>
+    <t>1. Enter invalid username and valid password</t>
+  </si>
+  <si>
+    <t>TC_LG_06</t>
+  </si>
+  <si>
+    <t>Verify login button functionality</t>
+  </si>
+  <si>
+    <t>1. Ensure login form is properly filled</t>
+  </si>
+  <si>
+    <t>2. Press Enter on the keyboard instead of clicking "Login" button</t>
+  </si>
+  <si>
+    <t>User should be logged in, similar to clicking the "Login" button</t>
+  </si>
+  <si>
+    <t>TC_LG_07</t>
+  </si>
+  <si>
+    <t>Verify "Remember Me" functionality</t>
+  </si>
+  <si>
+    <t>1. Check the "Remember Me" option</t>
+  </si>
+  <si>
+    <t>2. Enter valid credentials</t>
+  </si>
+  <si>
+    <t>3. Close the browser and reopen the login page</t>
+  </si>
+  <si>
+    <t>Username should be auto-filled, and the user should only need to enter the password to log in</t>
+  </si>
+  <si>
+    <t>TC_LG_08</t>
+  </si>
+  <si>
+    <t>Verify login case sensitivity</t>
+  </si>
+  <si>
+    <t>1. Enter a valid username and password with incorrect case (e.g., lowercase for uppercase letters)</t>
+  </si>
+  <si>
+    <t>2. Login</t>
+  </si>
+  <si>
+    <t>The system should display an error as login credentials are case-sensitive</t>
+  </si>
+  <si>
+    <t>TC_LG_09</t>
+  </si>
+  <si>
+    <t>Verify user redirection after login</t>
+  </si>
+  <si>
+    <t>1. Log in with valid credentials</t>
+  </si>
+  <si>
+    <t>User should be redirected to the dashboard (or homepage), not back to the login page</t>
+  </si>
+  <si>
+    <t>TC_LG_10</t>
+  </si>
+  <si>
+    <t>Verify login attempt lockout policy</t>
+  </si>
+  <si>
+    <t>1. Enter invalid credentials multiple times (e.g., 5 attempts)</t>
+  </si>
+  <si>
+    <t>After multiple failed attempts, the user account should be temporarily locked or display a CAPTCHA form</t>
+  </si>
+  <si>
+    <t>TC_FP_01</t>
+  </si>
+  <si>
+    <t>Verify access to "Forget Password" modal</t>
+  </si>
+  <si>
+    <t>1. Click on "Forgot your password?" link</t>
+  </si>
+  <si>
+    <t>"Forget Password" modal or page should open asking for email/username</t>
+  </si>
+  <si>
+    <t>TC_FP_02</t>
+  </si>
+  <si>
+    <t>Verify "Forget Password" with valid email</t>
+  </si>
+  <si>
+    <t>User is on forget password page</t>
+  </si>
+  <si>
+    <t>1. Enter a valid email/username</t>
+  </si>
+  <si>
+    <t>2. Click on "Reset Password" button</t>
+  </si>
+  <si>
+    <t>Password reset instructions should be sent to the entered email address, and a success message displayed</t>
+  </si>
+  <si>
+    <t>TC_FP_03</t>
+  </si>
+  <si>
+    <t>Verify "Forget Password" with invalid email</t>
+  </si>
+  <si>
+    <t>1. Enter an invalid email (e.g., not registered or malformed email)</t>
+  </si>
+  <si>
+    <t>2. Click "Reset Password"</t>
+  </si>
+  <si>
+    <t>Error message "Invalid email/username" should be displayed, and no email should be sent</t>
+  </si>
+  <si>
+    <t>TC_FP_04</t>
+  </si>
+  <si>
+    <t>Verify "Forget Password" with empty field</t>
+  </si>
+  <si>
+    <t>1. Leave the email/username field blank</t>
+  </si>
+  <si>
+    <t>Error message "Email/Username cannot be empty" should be displayed</t>
+  </si>
+  <si>
+    <t>TC_FP_05</t>
+  </si>
+  <si>
+    <t>Verify reset password email format</t>
+  </si>
+  <si>
+    <t>1. Successfully submit a valid email for password reset</t>
+  </si>
+  <si>
+    <t>The reset email should contain a link to reset the password and proper instructions</t>
+  </si>
+  <si>
+    <t>TC_FP_06</t>
+  </si>
+  <si>
+    <t>Verify reset password link functionality</t>
+  </si>
+  <si>
+    <t>User received reset email</t>
+  </si>
+  <si>
+    <t>1. Open the reset password email</t>
+  </si>
+  <si>
+    <t>2. Click on the reset password link</t>
+  </si>
+  <si>
+    <t>The user should be redirected to a secure page to enter a new password</t>
+  </si>
+  <si>
+    <t>TC_FP_07</t>
+  </si>
+  <si>
+    <t>Verify reset password with valid password</t>
+  </si>
+  <si>
+    <t>User is on password reset page</t>
+  </si>
+  <si>
+    <t>1. Enter a valid new password and confirm it</t>
+  </si>
+  <si>
+    <t>2. Click "Submit"</t>
+  </si>
+  <si>
+    <t>The password should be successfully reset, and the user should be able to log in with the new password</t>
+  </si>
+  <si>
+    <t>TC_FP_08</t>
+  </si>
+  <si>
+    <t>Verify reset password with mismatched input</t>
+  </si>
+  <si>
+    <t>1. Enter a new password</t>
+  </si>
+  <si>
+    <t>2. Enter a different password in the confirmation field</t>
+  </si>
+  <si>
+    <t>3. Submit</t>
+  </si>
+  <si>
+    <t>Error message "Passwords do not match" should be displayed, and the password should not be reset</t>
+  </si>
+  <si>
+    <t>TC_FP_09</t>
+  </si>
+  <si>
+    <t>Verify security of reset password link</t>
+  </si>
+  <si>
+    <t>1. Try using an expired password reset link</t>
+  </si>
+  <si>
+    <t>2. Attempt to reset password using the expired link</t>
+  </si>
+  <si>
+    <t>Error message "Link expired" should be displayed, and the reset process should be aborted</t>
+  </si>
+  <si>
+    <t>TC_FP_10</t>
+  </si>
+  <si>
+    <t>Verify reset password after multiple requests</t>
+  </si>
+  <si>
+    <t>User requests multiple resets</t>
+  </si>
+  <si>
+    <t>1. Request a password reset multiple times</t>
+  </si>
+  <si>
+    <t>The latest reset link should invalidate the previous ones, ensuring only the latest link is valid</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>TC_LV_01</t>
+  </si>
+  <si>
+    <t>Verify applying for leave with valid details</t>
+  </si>
+  <si>
+    <t>User is logged in and on the leave page</t>
+  </si>
+  <si>
+    <t>1. Click on "Apply Leave" button</t>
+  </si>
+  <si>
+    <t>2. Select leave type</t>
+  </si>
+  <si>
+    <t>3. Select valid start and end dates</t>
+  </si>
+  <si>
+    <t>4. Submit</t>
+  </si>
+  <si>
+    <t>Leave should be successfully applied, and a confirmation message should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LV_02</t>
+  </si>
+  <si>
+    <t>Verify applying for leave with overlapping dates</t>
+  </si>
+  <si>
+    <t>User has an active leave request</t>
+  </si>
+  <si>
+    <t>2. Select dates that overlap with an existing leave request</t>
+  </si>
+  <si>
+    <t>Error message "Leave request overlaps with an existing request" should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LV_03</t>
+  </si>
+  <si>
+    <t>Verify applying for leave with invalid date range</t>
+  </si>
+  <si>
+    <t>2. Select an end date earlier than the start date</t>
+  </si>
+  <si>
+    <t>Error message "End date cannot be earlier than start date" should be displayed</t>
+  </si>
+  <si>
+    <t>TC_LV_04</t>
+  </si>
+  <si>
+    <t>Verify applying for leave without selecting a leave type</t>
+  </si>
+  <si>
+    <t>2. Select valid dates but leave the leave type unselected</t>
+  </si>
+  <si>
+    <t>Error message "Please select a leave type" should be displayed, and the leave request should not proceed</t>
+  </si>
+  <si>
+    <t>TC_LV_05</t>
+  </si>
+  <si>
+    <t>Verify viewing available leave balance</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Leave Balance" section</t>
+  </si>
+  <si>
+    <t>The correct leave balance should be displayed for different leave types</t>
+  </si>
+  <si>
+    <t>TC_LV_06</t>
+  </si>
+  <si>
+    <t>Verify cancellation of applied leave request</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "My Leave" section</t>
+  </si>
+  <si>
+    <t>2. Select a previously applied leave request</t>
+  </si>
+  <si>
+    <t>3. Click "Cancel"</t>
+  </si>
+  <si>
+    <t>Leave request should be successfully canceled, and the status should be updated to "Cancelled"</t>
+  </si>
+  <si>
+    <t>TC_LV_07</t>
+  </si>
+  <si>
+    <t>Verify leave approval workflow</t>
+  </si>
+  <si>
+    <t>User is a manager with leave requests pending approval</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Leave Approvals" section</t>
+  </si>
+  <si>
+    <t>2. Review leave request</t>
+  </si>
+  <si>
+    <t>3. Click "Approve"</t>
+  </si>
+  <si>
+    <t>Leave request status should be updated to "Approved", and the employee should receive a notification</t>
+  </si>
+  <si>
+    <t>TC_LV_08</t>
+  </si>
+  <si>
+    <t>Verify rejection of leave request</t>
+  </si>
+  <si>
+    <t>3. Click "Reject"</t>
+  </si>
+  <si>
+    <t>Leave request status should be updated to "Rejected", and the employee should receive a notification</t>
+  </si>
+  <si>
+    <t>TC_LV_09</t>
+  </si>
+  <si>
+    <t>Verify applying for leave when leave balance is zero</t>
+  </si>
+  <si>
+    <t>2. Select a leave type with zero balance</t>
+  </si>
+  <si>
+    <t>Error message "Insufficient leave balance" should be displayed, and the request should not proceed</t>
+  </si>
+  <si>
+    <t>TC_LV_10</t>
+  </si>
+  <si>
+    <t>Verify leave history</t>
+  </si>
+  <si>
+    <t>User has past leave records</t>
+  </si>
+  <si>
+    <t>2. Review the leave history</t>
+  </si>
+  <si>
+    <t>Past leave records should be displayed with accurate details (leave type, status, and duration)</t>
+  </si>
+  <si>
+    <t>TC_RC_01</t>
+  </si>
+  <si>
+    <t>Verify adding a new job vacancy</t>
+  </si>
+  <si>
+    <t>User is logged in and on the recruitment page</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Vacancies" section</t>
+  </si>
+  <si>
+    <t>2. Click on "Add" button</t>
+  </si>
+  <si>
+    <t>3. Enter valid job details</t>
+  </si>
+  <si>
+    <t>Job vacancy should be successfully added, and it should appear in the vacancies list</t>
+  </si>
+  <si>
+    <t>TC_RC_02</t>
+  </si>
+  <si>
+    <t>Verify adding a job vacancy without required details</t>
+  </si>
+  <si>
+    <t>2. Click "Add" button</t>
+  </si>
+  <si>
+    <t>3. Leave required fields (e.g., job title) blank</t>
+  </si>
+  <si>
+    <t>Error message "Please fill all required fields" should be displayed, and the job vacancy should not be added</t>
+  </si>
+  <si>
+    <t>TC_RC_03</t>
+  </si>
+  <si>
+    <t>Verify viewing a list of job vacancies</t>
+  </si>
+  <si>
+    <t>User has added job vacancies</t>
+  </si>
+  <si>
+    <t>A list of job vacancies should be displayed, including job title, hiring manager, and status</t>
+  </si>
+  <si>
+    <t>TC_RC_04</t>
+  </si>
+  <si>
+    <t>Verify applying for a job vacancy as a candidate</t>
+  </si>
+  <si>
+    <t>User is on the external recruitment portal</t>
+  </si>
+  <si>
+    <t>1. Open a job vacancy</t>
+  </si>
+  <si>
+    <t>2. Click on "Apply"</t>
+  </si>
+  <si>
+    <t>3. Enter valid applicant details</t>
+  </si>
+  <si>
+    <t>4. Submit the application</t>
+  </si>
+  <si>
+    <t>Application should be successfully submitted, and the candidate should receive a confirmation</t>
+  </si>
+  <si>
+    <t>TC_RC_05</t>
+  </si>
+  <si>
+    <t>Verify applying for a job vacancy with missing details</t>
+  </si>
+  <si>
+    <t>2. Click "Apply"</t>
+  </si>
+  <si>
+    <t>3. Leave required fields blank</t>
+  </si>
+  <si>
+    <t>Error message "Please complete all required fields" should be displayed, and the application should not be submitted</t>
+  </si>
+  <si>
+    <t>TC_RC_06</t>
+  </si>
+  <si>
+    <t>Verify candidate status update by hiring manager</t>
+  </si>
+  <si>
+    <t>User is a hiring manager reviewing applications</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "Candidates" section</t>
+  </si>
+  <si>
+    <t>2. Select a candidate</t>
+  </si>
+  <si>
+    <t>3. Update the status (e.g., Interview Scheduled)</t>
+  </si>
+  <si>
+    <t>Candidate status should be successfully updated, and the candidate should receive a status notification</t>
+  </si>
+  <si>
+    <t>TC_RC_07</t>
+  </si>
+  <si>
+    <t>Verify scheduling an interview</t>
+  </si>
+  <si>
+    <t>User is a hiring manager</t>
+  </si>
+  <si>
+    <t>3. Schedule an interview by setting time and date</t>
+  </si>
+  <si>
+    <t>Interview should be successfully scheduled, and both the candidate and hiring manager should be notified</t>
+  </si>
+  <si>
+    <t>TC_RC_08</t>
+  </si>
+  <si>
+    <t>Verify rejecting a candidate application</t>
+  </si>
+  <si>
+    <t>Candidate should be marked as "Rejected", and the candidate should receive a rejection notification</t>
+  </si>
+  <si>
+    <t>TC_RC_09</t>
+  </si>
+  <si>
+    <t>Verify downloading candidate resume</t>
+  </si>
+  <si>
+    <t>3. Click "Download Resume"</t>
+  </si>
+  <si>
+    <t>The candidate's resume should be successfully downloaded in the chosen format (PDF, DOC, etc.)</t>
+  </si>
+  <si>
+    <t>TC_RC_10</t>
+  </si>
+  <si>
+    <t>Verify deleting a job vacancy</t>
+  </si>
+  <si>
+    <t>2. Select a job vacancy</t>
+  </si>
+  <si>
+    <t>3. Click "Delete"</t>
+  </si>
+  <si>
+    <t>Job vacancy should be successfully deleted from the system, and it should no longer appear in the list</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +790,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1C4587"/>
+        <bgColor rgb="FF1C4587"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -45,12 +888,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +1371,2232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>45587</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54.44140625" customWidth="1"/>
+    <col min="7" max="7" width="52.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="158.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="50.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="48" ht="100.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="100.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="115.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/TestCase.xlsx
+++ b/Documentation/TestCase.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="249">
   <si>
     <t>Test Environment</t>
   </si>
@@ -379,24 +379,6 @@
     <t>The reset email should contain a link to reset the password and proper instructions</t>
   </si>
   <si>
-    <t>TC_FP_06</t>
-  </si>
-  <si>
-    <t>Verify reset password link functionality</t>
-  </si>
-  <si>
-    <t>User received reset email</t>
-  </si>
-  <si>
-    <t>1. Open the reset password email</t>
-  </si>
-  <si>
-    <t>2. Click on the reset password link</t>
-  </si>
-  <si>
-    <t>The user should be redirected to a secure page to enter a new password</t>
-  </si>
-  <si>
     <t>TC_FP_07</t>
   </si>
   <si>
@@ -776,6 +758,18 @@
   </si>
   <si>
     <t>Job vacancy should be successfully deleted from the system, and it should no longer appear in the list</t>
+  </si>
+  <si>
+    <t>TC_LG_11</t>
+  </si>
+  <si>
+    <t>Verify Password text is hidded / encrypted</t>
+  </si>
+  <si>
+    <t>1. Enter the password</t>
+  </si>
+  <si>
+    <t>Entered password should not be readable</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1048,9 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,21 +1047,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1083,7 +1062,22 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1386,10 +1380,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1580,10 +1574,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1694,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,379 +1703,392 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>146</v>
+      <c r="G1" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="26"/>
+      <c r="F2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="26"/>
+      <c r="F4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="27"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="26"/>
+      <c r="F6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="27"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="26"/>
+      <c r="F8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="28"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="26"/>
+      <c r="F11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="27"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="26"/>
+      <c r="F13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="27"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="26"/>
+      <c r="F15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="27"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="26"/>
+      <c r="F18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="27"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="29"/>
+      <c r="F20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="29"/>
+      <c r="F21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2089,6 +2096,46 @@
     <row r="39" ht="72" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="G18:G19"/>
@@ -2097,46 +2144,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2145,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,340 +2167,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>146</v>
+      <c r="G1" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="20"/>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="21"/>
+      <c r="F5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="21"/>
+      <c r="F7" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="20"/>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="21"/>
+      <c r="F10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="C15" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E15" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17" t="s">
+      <c r="E17" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="20"/>
+      <c r="F17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+  <mergeCells count="36">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
@@ -2504,26 +2478,21 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2533,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2549,444 +2518,489 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="14" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="C6" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="E16" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B19" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C19" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="D19" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17" t="s">
+      <c r="E22" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="C25" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="C28" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="D28" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="32"/>
     </row>
     <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="48" ht="100.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" ht="100.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" ht="115.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="G28:G29"/>
@@ -2996,51 +3010,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3066,482 +3035,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>146</v>
+      <c r="G1" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="F2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="C6" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="C11" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="E11" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="B15" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="C15" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="B19" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C19" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D19" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="E22" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="D25" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="F25" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="B28" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="B31" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="C31" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="22"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="G31:G33"/>
     <mergeCell ref="G6:G9"/>
@@ -3550,52 +3565,6 @@
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="G25:G27"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
